--- a/data/CS1_2/case18_1/case18_1_2020.xlsx
+++ b/data/CS1_2/case18_1/case18_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0596B0C5-88C7-4EE2-B8E9-494ACA7EC10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A742EAE5-B276-4128-ABE3-E61B1AD1F134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2295" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
